--- a/election_votar_data/LOHAGARA/AMIRABAD/152589/152589_com_1373_male_without_photo_78_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152589/152589_com_1373_male_without_photo_78_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45.5" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="44.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>৬৫৭, আলীর বাপের বাড়ী, পূর্ব হাজারবিঘা,, হাজারবিঘা, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৫৭, আলীর বাপের বাড়ী, পূর্ব হাজারবিঘা, হাজারবিঘা, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
-          <t>০১৭০, কমলার বাপের বাড়ি, সুখছড়ী,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>০১৭০, কমলার বাপের বাড়ি, সুখছড়ী, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -9345,10 +9345,14 @@
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:১৮/১০/১৯৫৪</t>
-        </is>
-      </c>
-      <c r="G212" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G212" s="3" t="inlineStr">
+        <is>
+          <t>১৮/১০/১৯৫৪</t>
+        </is>
+      </c>
       <c r="H212" s="5" t="inlineStr">
         <is>
           <t>খলিফার বাড়ি, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
@@ -9988,22 +9992,22 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>১০১৮</t>
+          <t>০৬৯২</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>শাহা আলম</t>
+          <t>মোঃ আব্দুল হামান</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৬৪৮</t>
+          <t>১৫২৫৮৯০০০১৮৪</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>মৃত জাগির মিয়া</t>
+          <t>জাকের আহমেদ</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
@@ -10013,39 +10017,39 @@
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G228" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৮৩</t>
+          <t>০১/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H228" s="5" t="inlineStr">
         <is>
-          <t>৪৪৬, গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>০৬৯২</t>
+          <t>১০১৮</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আব্দুল হামান</t>
+          <t>শাহা আলম</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৮৪</t>
+          <t>১৫২৫৮৯০০০৬৪৮</t>
         </is>
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>জাকের আহমেদ</t>
+          <t>মৃত জাগির মিয়া</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
@@ -10055,54 +10059,54 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G229" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯০</t>
+          <t>১২/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="H229" s="5" t="inlineStr">
         <is>
-          <t>গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৪৬, গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>০৪৩৪</t>
+          <t>০৪০৮</t>
         </is>
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>নাজিম উদ্দীন</t>
+          <t>মোহাম্মদ রফিক</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৫১৭</t>
+          <t>১৫২৫৮৯০১৩৪৭৫</t>
         </is>
       </c>
       <c r="D230" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আলিম</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E230" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G230" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৭</t>
+          <t>০২/০৮/১৯৮৭</t>
         </is>
       </c>
       <c r="H230" s="5" t="inlineStr">
@@ -10114,37 +10118,37 @@
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>০৪৩৬</t>
+          <t>০৪৩৩</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সুমন</t>
+          <t>মোহাম্মদ জালাল উদ্দীন</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৫২০</t>
+          <t>১৫২৫৮৯০১৩৫১৬</t>
         </is>
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুহা</t>
+          <t>ঠান্ডা মিয়া</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>জান্নাত আরা বেগম</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G231" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৫</t>
+          <t>১০/০২/১৯৫৭</t>
         </is>
       </c>
       <c r="H231" s="5" t="inlineStr">
@@ -10156,27 +10160,27 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>১২৮১</t>
+          <t>০৪৩৪</t>
         </is>
       </c>
       <c r="B232" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইমরান গাজী ইমন</t>
+          <t>নাজিম উদ্দীন</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০৭১১১৫৬</t>
+          <t>১৫২৫৮৯০১৩৫১৭</t>
         </is>
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউছুপ</t>
+          <t>আবদুল আলিম</t>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>তাহলিমা আকতার</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F232" s="3" t="inlineStr">
@@ -10186,49 +10190,49 @@
       </c>
       <c r="G232" s="3" t="inlineStr">
         <is>
-          <t>০৮/১২/২০০১</t>
+          <t>১০/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H232" s="5" t="inlineStr">
         <is>
-          <t>৪৪০, গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>০৪০৮</t>
+          <t>০৪৩৬</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক</t>
+          <t>মোহাম্মদ সুমন</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪৭৫</t>
+          <t>১৫২৫৮৯০১৩৫২০</t>
         </is>
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>মোহাম্মদ মুহা</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>জান্নাত আরা বেগম</t>
         </is>
       </c>
       <c r="F233" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G233" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/১৯৮৭</t>
+          <t>০৫/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="H233" s="5" t="inlineStr">
@@ -10240,37 +10244,37 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৫</t>
+          <t>০৩৩৯</t>
         </is>
       </c>
       <c r="B234" s="4" t="inlineStr">
         <is>
-          <t>মুজিবুর রহমান</t>
+          <t>মোহাম্মদ হারুন</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩৪৭</t>
+          <t>১৫২৫৮৯০১০১৩০১</t>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>আব্দুর হুসাইন</t>
+          <t>মদন আলী</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>খদিজা বেগম</t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৭৩</t>
+          <t>০২/০৭/১৯৭১</t>
         </is>
       </c>
       <c r="H234" s="5" t="inlineStr">
@@ -10282,27 +10286,27 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>০৩৪২</t>
+          <t>০৩৫৫</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইলিয়াছ</t>
+          <t>মুজিবুর রহমান</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩১৫</t>
+          <t>১৫২৫৮৯০১৩৩৪৭</t>
         </is>
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>আকাম উদ্দীন</t>
+          <t>আব্দুর হুসাইন</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F235" s="3" t="inlineStr">
@@ -10312,7 +10316,7 @@
       </c>
       <c r="G235" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৮৩</t>
+          <t>০১/০১/১৯৭৩</t>
         </is>
       </c>
       <c r="H235" s="5" t="inlineStr">
@@ -10324,79 +10328,79 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>০৩৪৫</t>
+          <t>১২৮১</t>
         </is>
       </c>
       <c r="B236" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউচ্ছুপ</t>
+          <t>মোহাম্মদ ইমরান গাজী ইমন</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩১৮</t>
+          <t>১৫২৫৮৯০৭১১১৫৬</t>
         </is>
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>আকাম উদ্দীন</t>
+          <t>মোহাম্মদ ইউছুপ</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>তাহলিমা আকতার</t>
         </is>
       </c>
       <c r="F236" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G236" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৭১</t>
+          <t>০৮/১২/২০০১</t>
         </is>
       </c>
       <c r="H236" s="5" t="inlineStr">
         <is>
-          <t>গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৪০, গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>০৩৩৯</t>
+          <t>০৩৪২</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হারুন</t>
+          <t>মোহাম্মদ ইলিয়াছ</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৩০১</t>
+          <t>১৫২৫৮৯০১৩৩১৫</t>
         </is>
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>মদন আলী</t>
+          <t>আকাম উদ্দীন</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>খদিজা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F237" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G237" s="3" t="inlineStr">
         <is>
-          <t>০২/০৭/১৯৭১</t>
+          <t>০২/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="H237" s="5" t="inlineStr">
@@ -10408,17 +10412,17 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>০৩৪৩</t>
+          <t>০৩৪৫</t>
         </is>
       </c>
       <c r="B238" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহিম খলিল</t>
+          <t>মোহাম্মদ ইউচ্ছুপ</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩১৬</t>
+          <t>১৫২৫৮৯০১৩৩১৮</t>
         </is>
       </c>
       <c r="D238" s="4" t="inlineStr">
@@ -10438,7 +10442,7 @@
       </c>
       <c r="G238" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/১৯৮৩</t>
+          <t>০২/০৪/১৯৭১</t>
         </is>
       </c>
       <c r="H238" s="5" t="inlineStr">
@@ -10450,27 +10454,27 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>০৪৩৩</t>
+          <t>০৩৪৩</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জালাল উদ্দীন</t>
+          <t>মোহাম্মদ ইব্রাহিম খলিল</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৫১৬</t>
+          <t>১৫২৫৮৯০১৩৩১৬</t>
         </is>
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>ঠান্ডা মিয়া</t>
+          <t>আকাম উদ্দীন</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F239" s="3" t="inlineStr">
@@ -10480,7 +10484,7 @@
       </c>
       <c r="G239" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৫৭</t>
+          <t>০৩/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="H239" s="5" t="inlineStr">
@@ -10576,17 +10580,17 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>০০৯৫</t>
+          <t>০০৯২</t>
         </is>
       </c>
       <c r="B242" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
+          <t>মোহাম্মদ সামাঙ্গল আলম</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০৩১৪</t>
+          <t>১৫২৫৮৯০১০৩০৯</t>
         </is>
       </c>
       <c r="D242" s="4" t="inlineStr">
@@ -10606,7 +10610,7 @@
       </c>
       <c r="G242" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/১৯৮৫</t>
+          <t>০১/০৪/১৯৭২</t>
         </is>
       </c>
       <c r="H242" s="5" t="inlineStr">
@@ -10618,17 +10622,17 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>০০৯২</t>
+          <t>০০৯৫</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সামাঙ্গল আলম</t>
+          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০৩০৯</t>
+          <t>১৫২৫৮৯০১০৩১৪</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
@@ -10648,7 +10652,7 @@
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t>০১/০৪/১৯৭২</t>
+          <t>০৩/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H243" s="5" t="inlineStr">
@@ -10912,69 +10916,69 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>১২৫৮</t>
+          <t>১০৭৪</t>
         </is>
       </c>
       <c r="B250" s="4" t="inlineStr">
         <is>
-          <t>জাহাঙ্গীর আলম</t>
+          <t>সালাহ উদ্দীন</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৮৪২</t>
+          <t>১৫২৫৮৯০০০৭৯১৭</t>
         </is>
       </c>
       <c r="D250" s="4" t="inlineStr">
         <is>
-          <t>জেয়াবুল হক</t>
+          <t>মুত আব্দুল মজিদ</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>মুত রাবেয়া বেগম</t>
         </is>
       </c>
       <c r="F250" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G250" s="3" t="inlineStr">
         <is>
-          <t>১২/০১/১৯৭৯</t>
+          <t>০৩/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H250" s="5" t="inlineStr">
         <is>
-          <t>৭৭৫, গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>০০৪২, গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>০৭১৬</t>
+          <t>০৭৩৫</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হানিফ</t>
+          <t>ইয়াছিন আরফাত</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৯৫</t>
+          <t>১৫২৫৮৯০০০১৯৪</t>
         </is>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল বশর</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>বেগম জাহান</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="F251" s="3" t="inlineStr">
@@ -10984,7 +10988,7 @@
       </c>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>২০/০৭/১৯৯২</t>
+          <t>৩১/০৫/১৯৯৩</t>
         </is>
       </c>
       <c r="H251" s="5" t="inlineStr">
@@ -10996,69 +11000,69 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৭</t>
+          <t>১২৫৮</t>
         </is>
       </c>
       <c r="B252" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আরমান</t>
+          <t>জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৪১১</t>
+          <t>১৫২৫৮৯০০০৮৪২</t>
         </is>
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>জেয়াবুল হক</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>বেগম জাহান</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F252" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G252" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৯৬</t>
+          <t>১২/০১/১৯৭৯</t>
         </is>
       </c>
       <c r="H252" s="5" t="inlineStr">
         <is>
-          <t>গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৭৫, গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৫</t>
+          <t>০৭১৬</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>ইয়াছিন আরফাত</t>
+          <t>মুহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৯৪</t>
+          <t>১৫২৫৮৯০০০১৯৫</t>
         </is>
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>আব্দুল বশর</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>বেগম জাহান</t>
         </is>
       </c>
       <c r="F253" s="3" t="inlineStr">
@@ -11068,7 +11072,7 @@
       </c>
       <c r="G253" s="3" t="inlineStr">
         <is>
-          <t>৩১/০৫/১৯৯৩</t>
+          <t>২০/০৭/১৯৯২</t>
         </is>
       </c>
       <c r="H253" s="5" t="inlineStr">
@@ -11080,84 +11084,84 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>০০২৮</t>
+          <t>০৮৭৭</t>
         </is>
       </c>
       <c r="B254" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমদ</t>
+          <t>মোঃ আরমান</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৮১</t>
+          <t>১৫২৫৮৯০০০৪১১</t>
         </is>
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সাত্তার</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>কুলছুমা খাতুন</t>
+          <t>বেগম জাহান</t>
         </is>
       </c>
       <c r="F254" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G254" s="3" t="inlineStr">
         <is>
-          <t>১২/০৮/১৯৬৭</t>
+          <t>১০/০৮/১৯৯৬</t>
         </is>
       </c>
       <c r="H254" s="5" t="inlineStr">
         <is>
-          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>০০৩০</t>
+          <t>১১৭৫</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>ফোরক আহমদ</t>
+          <t>মোঃ নোমান</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৯৭</t>
+          <t>১৫২৫৮৯০৭০৯৪৭</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>ফজল কবির</t>
+          <t>মোঃ শফি</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>গুলজার বেগম</t>
+          <t>জাহেদা বেগম</t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৪৯</t>
+          <t>১০/০১/২০০২</t>
         </is>
       </c>
       <c r="H255" s="5" t="inlineStr">
         <is>
-          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৪, গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -11206,42 +11210,42 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>১১৭৫</t>
+          <t>০০৩০</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নোমান</t>
+          <t>ফোরক আহমদ</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০৭০৯৪৭</t>
+          <t>১৫২৫৮৯০১০০০৯৭</t>
         </is>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শফি</t>
+          <t>ফজল কবির</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>জাহেদা বেগম</t>
+          <t>গুলজার বেগম</t>
         </is>
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/২০০২</t>
+          <t>১৭/০৮/১৯৪৯</t>
         </is>
       </c>
       <c r="H257" s="5" t="inlineStr">
         <is>
-          <t>৭৪, গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -11290,37 +11294,37 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>০০৩৮</t>
+          <t>০০২৮</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>মনির আহমদ</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১১৬</t>
+          <t>১৫২৫৮৯০১০০০৮১</t>
         </is>
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>আবদুস সাত্তার</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খাতুন</t>
+          <t>কুলছুমা খাতুন</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>১৬/১০/১৯৫৫</t>
+          <t>১২/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H259" s="5" t="inlineStr">
@@ -11374,37 +11378,37 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>০০৪১</t>
+          <t>০০৩৯</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>দুসন্তর বড়ুয়া</t>
+          <t>মোহাম্মদ আবু ছিদিক</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১২১</t>
+          <t>১৫২৫৮৯০১০১১৭</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>বিরাজ চন্দ্র বড়ুয়া</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>নয়ন বড়ুয়া</t>
+          <t>রাবেয়া খাতুন</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G261" s="3" t="inlineStr">
         <is>
-          <t>১৮/০১/১৯৮৭</t>
+          <t>০২/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H261" s="5" t="inlineStr">
@@ -11416,27 +11420,27 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>০০৭০</t>
+          <t>০০৮০</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
         <is>
-          <t>মনু মিয়া</t>
+          <t>মোহাম্মদ আলমগীর</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯২</t>
+          <t>১৫২৫৮৯০১০২০৯</t>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F262" s="3" t="inlineStr">
@@ -11446,7 +11450,7 @@
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>০১/০৪/১৯৮২</t>
+          <t>৩০/০৬/১৯৮৮</t>
         </is>
       </c>
       <c r="H262" s="5" t="inlineStr">
@@ -11458,37 +11462,37 @@
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>০০৭১</t>
+          <t>০০৭৯</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>খাইর আহমেদ</t>
+          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৩</t>
+          <t>১৫২৫৮৯০১০২০৮</t>
         </is>
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>ফজলুল কবির</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>গোলজার বেগম</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F263" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G263" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৬৪</t>
+          <t>০৭/০৯/১৯৮৩</t>
         </is>
       </c>
       <c r="H263" s="5" t="inlineStr">
@@ -11500,37 +11504,37 @@
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>০০৭২</t>
+          <t>০০৭৮</t>
         </is>
       </c>
       <c r="B264" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>মুহাম্মদ শামসুল আলম</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৫</t>
+          <t>১৫২৫৮৯০১০২০৫</t>
         </is>
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সান্তার</t>
+          <t>এম এজাহার মিয়া</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
         <is>
-          <t>কুলছুমা খাতুন</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F264" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G264" s="3" t="inlineStr">
         <is>
-          <t>২৯/০৭/১৯৫৭</t>
+          <t>১১/০৬/১৯৫৭</t>
         </is>
       </c>
       <c r="H264" s="5" t="inlineStr">
@@ -11542,27 +11546,27 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>০০৭৩</t>
+          <t>০০৭৬</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>আবদুর রহিম</t>
+          <t>মোহাম্মদ আরিফ উদ্দীন</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৬</t>
+          <t>১৫২৫৮৯০১০২০২</t>
         </is>
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>আবদুল গফুর</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>তাহেরা আক্তার</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
@@ -11572,7 +11576,7 @@
       </c>
       <c r="G265" s="3" t="inlineStr">
         <is>
-          <t>০২/১০/১৯৮৩</t>
+          <t>০১/০৯/১৯৮৯</t>
         </is>
       </c>
       <c r="H265" s="5" t="inlineStr">
@@ -11584,37 +11588,37 @@
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>০০৭৪</t>
+          <t>০০৫০</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফারুক মিশ্রা</t>
+          <t>মোহাম্মদ শফি</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৮</t>
+          <t>১৫২৫৮৯০১০১৫৩</t>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>রমিছ উদ্দীন</t>
+          <t>আবদুল গফুর</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>মুনতোকা খাতুন</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
         <is>
-          <t>১২/০৪/১৯৭২</t>
+          <t>১৩/০৮/১৯৭৯</t>
         </is>
       </c>
       <c r="H266" s="5" t="inlineStr">
@@ -11626,37 +11630,37 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>০০৭৫</t>
+          <t>০০৪৯</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সিরাজুল হক</t>
+          <t>মোহাম্মদ আক্তার হোছেন</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৯</t>
+          <t>১৫২৫৮৯০১০১৪৯</t>
         </is>
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>আজিজুর রহমান</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>মোনেনা খাতুন</t>
+          <t>আসমা খাতুন</t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G267" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৬/১৯৬৬</t>
+          <t>৩০/১০/১৯৮৭</t>
         </is>
       </c>
       <c r="H267" s="5" t="inlineStr">
@@ -11668,17 +11672,17 @@
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>০০৭৬</t>
+          <t>০০৪৬</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরিফ উদ্দীন</t>
+          <t>মোহাম্মদ তারেক উদ্দীন</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০২</t>
+          <t>১৫২৫৮৯০১০১৩৭</t>
         </is>
       </c>
       <c r="D268" s="4" t="inlineStr">
@@ -11693,12 +11697,12 @@
       </c>
       <c r="F268" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>০১/০৯/১৯৮৯</t>
+          <t>০৯/০১/১৯৮৮</t>
         </is>
       </c>
       <c r="H268" s="5" t="inlineStr">
@@ -11710,37 +11714,37 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>০০৭৮</t>
+          <t>০০৭৫</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ শামসুল আলম</t>
+          <t>মোহাম্মদ সিরাজুল হক</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০৫</t>
+          <t>১৫২৫৮৯০১০১৯৯</t>
         </is>
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>এম এজাহার মিয়া</t>
+          <t>আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>মোনেনা খাতুন</t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>১১/০৬/১৯৫৭</t>
+          <t>১৫/০৬/১৯৬৬</t>
         </is>
       </c>
       <c r="H269" s="5" t="inlineStr">
@@ -11752,27 +11756,27 @@
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>০০৭৯</t>
+          <t>০০৭৪</t>
         </is>
       </c>
       <c r="B270" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
+          <t>মোহাম্মদ ফারুক মিশ্রা</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০৮</t>
+          <t>১৫২৫৮৯০১০১৯৮</t>
         </is>
       </c>
       <c r="D270" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>রমিছ উদ্দীন</t>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>মুনতোকা খাতুন</t>
         </is>
       </c>
       <c r="F270" s="3" t="inlineStr">
@@ -11782,7 +11786,7 @@
       </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৮৩</t>
+          <t>১২/০৪/১৯৭২</t>
         </is>
       </c>
       <c r="H270" s="5" t="inlineStr">
@@ -11794,37 +11798,37 @@
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>০০৩৯</t>
+          <t>০০৪৩</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবু ছিদিক</t>
+          <t>মোহাম্মদ আনোয়ার হোসাইন</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১১৭</t>
+          <t>১৫২৫৮৯০১০১৩০</t>
         </is>
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খাতুন</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F271" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>০২/০২/১৯৭০</t>
+          <t>০৫/০১/১৯৭৫</t>
         </is>
       </c>
       <c r="H271" s="5" t="inlineStr">
@@ -11836,37 +11840,37 @@
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>০০৮১</t>
+          <t>০০৮২</t>
         </is>
       </c>
       <c r="B272" s="4" t="inlineStr">
         <is>
-          <t>ছাবের আহমেদ</t>
+          <t>মোহাম্মদ সোলাইমান</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২১১</t>
+          <t>১৫২৫৮৯০১০২১৩</t>
         </is>
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইসমাইল</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
         <is>
-          <t>ওমদা খাতুন</t>
+          <t>আছিয়া বেগম</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
         <is>
-          <t>শিক্ষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>১৬/০২/১৯৭০</t>
+          <t>০৬/০৫/১৯৬৫</t>
         </is>
       </c>
       <c r="H272" s="5" t="inlineStr">
@@ -11878,37 +11882,37 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>০০৫০</t>
+          <t>০০৪২</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শফি</t>
+          <t>মোঃ আমিনুল হক</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৫৩</t>
+          <t>১৫২৫৮৯০১০১২২</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>আবদুল গফুর</t>
+          <t>আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মোনেনা খাতুন</t>
         </is>
       </c>
       <c r="F273" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>দার্জ</t>
         </is>
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৮/১৯৭৯</t>
+          <t>২১/১২/১৯৭০</t>
         </is>
       </c>
       <c r="H273" s="5" t="inlineStr">
@@ -11920,37 +11924,37 @@
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>০০৪৯</t>
+          <t>০০৭৩</t>
         </is>
       </c>
       <c r="B274" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আক্তার হোছেন</t>
+          <t>আবদুর রহিম</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৪৯</t>
+          <t>১৫২৫৮৯০১০১৯৬</t>
         </is>
       </c>
       <c r="D274" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>আবদুল গফুর</t>
         </is>
       </c>
       <c r="E274" s="4" t="inlineStr">
         <is>
-          <t>আসমা খাতুন</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>৩০/১০/১৯৮৭</t>
+          <t>০২/১০/১৯৮৩</t>
         </is>
       </c>
       <c r="H274" s="5" t="inlineStr">
@@ -11962,37 +11966,37 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>০০৮০</t>
+          <t>০০৭২</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলমগীর</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০৯</t>
+          <t>১৫২৫৮৯০১০১৯৫</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>আবদুস সান্তার</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>কুলছুমা খাতুন</t>
         </is>
       </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৬/১৯৮৮</t>
+          <t>২৯/০৭/১৯৫৭</t>
         </is>
       </c>
       <c r="H275" s="5" t="inlineStr">
@@ -12004,37 +12008,37 @@
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>০০৪৬</t>
+          <t>০০৭১</t>
         </is>
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ তারেক উদ্দীন</t>
+          <t>খাইর আহমেদ</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৩৭</t>
+          <t>১৫২৫৮৯০১০১৯৩</t>
         </is>
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>ফজলুল কবির</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা আক্তার</t>
+          <t>গোলজার বেগম</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>০৯/০১/১৯৮৮</t>
+          <t>০৮/০৬/১৯৬৪</t>
         </is>
       </c>
       <c r="H276" s="5" t="inlineStr">
@@ -12046,37 +12050,37 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>০০৮৮</t>
+          <t>০০৭০</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হেলাল</t>
+          <t>মনু মিয়া</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২৩৫</t>
+          <t>১৫২৫৮৯০১০১৯২</t>
         </is>
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল বশর</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>বেগম জাহন</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯০</t>
+          <t>০১/০৪/১৯৮২</t>
         </is>
       </c>
       <c r="H277" s="5" t="inlineStr">
@@ -12088,27 +12092,27 @@
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>০০৪৩</t>
+          <t>০০৮৮</t>
         </is>
       </c>
       <c r="B278" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আনোয়ার হোসাইন</t>
+          <t>মোহাম্মদ হেলাল</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৩০</t>
+          <t>১৫২৫৮৯০১০২৩৫</t>
         </is>
       </c>
       <c r="D278" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>মোহাম্মদ আবুল বশর</t>
         </is>
       </c>
       <c r="E278" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>বেগম জাহন</t>
         </is>
       </c>
       <c r="F278" s="3" t="inlineStr">
@@ -12118,7 +12122,7 @@
       </c>
       <c r="G278" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৭৫</t>
+          <t>০১/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H278" s="5" t="inlineStr">
@@ -12172,27 +12176,27 @@
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>০০৮২</t>
+          <t>০০৪১</t>
         </is>
       </c>
       <c r="B280" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সোলাইমান</t>
+          <t>দুসন্তর বড়ুয়া</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২১৩</t>
+          <t>১৫২৫৮৯০১০১২১</t>
         </is>
       </c>
       <c r="D280" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>বিরাজ চন্দ্র বড়ুয়া</t>
         </is>
       </c>
       <c r="E280" s="4" t="inlineStr">
         <is>
-          <t>আছিয়া বেগম</t>
+          <t>নয়ন বড়ুয়া</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
@@ -12202,7 +12206,7 @@
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৫/১৯৬৫</t>
+          <t>১৮/০১/১৯৮৭</t>
         </is>
       </c>
       <c r="H280" s="5" t="inlineStr">
@@ -12214,37 +12218,37 @@
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>০০৪২</t>
+          <t>০০৩৮</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আমিনুল হক</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১২২</t>
+          <t>১৫২৫৮৯০১০১১৬</t>
         </is>
       </c>
       <c r="D281" s="4" t="inlineStr">
         <is>
-          <t>আজিজুর রহমান</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>মোনেনা খাতুন</t>
+          <t>রাবেয়া খাতুন</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t>দার্জ</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
-          <t>২১/১২/১৯৭০</t>
+          <t>১৬/১০/১৯৫৫</t>
         </is>
       </c>
       <c r="H281" s="5" t="inlineStr">
@@ -12256,42 +12260,42 @@
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>১০৭৪</t>
+          <t>০০৮১</t>
         </is>
       </c>
       <c r="B282" s="4" t="inlineStr">
         <is>
-          <t>সালাহ উদ্দীন</t>
+          <t>ছাবের আহমেদ</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৭৯১৭</t>
+          <t>১৫২৫৮৯০১০২১১</t>
         </is>
       </c>
       <c r="D282" s="4" t="inlineStr">
         <is>
-          <t>মুত আব্দুল মজিদ</t>
+          <t>মোহাম্মদ ইসমাইল</t>
         </is>
       </c>
       <c r="E282" s="4" t="inlineStr">
         <is>
-          <t>মুত রাবেয়া বেগম</t>
+          <t>ওমদা খাতুন</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শিক্ষক</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৮/১৯৬৭</t>
+          <t>১৬/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H282" s="5" t="inlineStr">
         <is>
-          <t>০০৪২, গোলাম আলী পাড়া,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -12718,27 +12722,27 @@
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>০৪০৪</t>
+          <t>০৩৬৮</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোসেন</t>
+          <t>নুরুল আমিন খলিফা</t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪৭০</t>
+          <t>১৫২৫৮৯০১৩৩৭৪</t>
         </is>
       </c>
       <c r="D293" s="4" t="inlineStr">
         <is>
-          <t>আব্দুর রশিদ</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>মায়মুনা বেগম</t>
+          <t>বিবি শোনা</t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
@@ -12748,7 +12752,7 @@
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t>০২/০৫/১৯৫৭</t>
+          <t>০২/০৮/১৯৭৭</t>
         </is>
       </c>
       <c r="H293" s="5" t="inlineStr">
@@ -12760,27 +12764,27 @@
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৮</t>
+          <t>০৩৮১</t>
         </is>
       </c>
       <c r="B294" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন খলিফা</t>
+          <t>মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩৭৪</t>
+          <t>১৫২৫৮৯০১৩৪০৩</t>
         </is>
       </c>
       <c r="D294" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>নজু মিশ্রা</t>
         </is>
       </c>
       <c r="E294" s="4" t="inlineStr">
         <is>
-          <t>বিবি শোনা</t>
+          <t>আফিয়া খাতুন</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
@@ -12790,7 +12794,7 @@
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/১৯৭৭</t>
+          <t>০২/০৭/১৯৫২</t>
         </is>
       </c>
       <c r="H294" s="5" t="inlineStr">
@@ -12802,27 +12806,27 @@
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>০৩৮১</t>
+          <t>০৩৮০</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোসেন</t>
+          <t>মোহাম্মদ দেলোয়ার হোসাইন</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪০৩</t>
+          <t>১৫২৫৮৯০১৩৪০২</t>
         </is>
       </c>
       <c r="D295" s="4" t="inlineStr">
         <is>
-          <t>নজু মিশ্রা</t>
+          <t>নজু মিয়া</t>
         </is>
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>আফিয়া খাতুন</t>
+          <t>আফিয়া বেগম</t>
         </is>
       </c>
       <c r="F295" s="3" t="inlineStr">
@@ -12832,7 +12836,7 @@
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>০২/০৭/১৯৫২</t>
+          <t>১০/০৭/১৯৮২</t>
         </is>
       </c>
       <c r="H295" s="5" t="inlineStr">
@@ -12844,27 +12848,27 @@
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>০৩৮০</t>
+          <t>০৪০৪</t>
         </is>
       </c>
       <c r="B296" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ দেলোয়ার হোসাইন</t>
+          <t>আহমেদ হোসেন</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪০২</t>
+          <t>১৫২৫৮৯০১৩৪৭০</t>
         </is>
       </c>
       <c r="D296" s="4" t="inlineStr">
         <is>
-          <t>নজু মিয়া</t>
+          <t>আব্দুর রশিদ</t>
         </is>
       </c>
       <c r="E296" s="4" t="inlineStr">
         <is>
-          <t>আফিয়া বেগম</t>
+          <t>মায়মুনা বেগম</t>
         </is>
       </c>
       <c r="F296" s="3" t="inlineStr">
@@ -12874,7 +12878,7 @@
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৮২</t>
+          <t>০২/০৫/১৯৫৭</t>
         </is>
       </c>
       <c r="H296" s="5" t="inlineStr">
@@ -13054,111 +13058,111 @@
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
         <is>
-          <t>০৬৮৩</t>
+          <t>১০২৪</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুর উদ্দীন</t>
+          <t>মোঃ মনোয়ার হোসেন তারেক</t>
         </is>
       </c>
       <c r="C301" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৬৪</t>
+          <t>১৫২৫৮৯০০০৬৫৫</t>
         </is>
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>নজরুল ইসলাম</t>
+          <t>আবদুল মালেক</t>
         </is>
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা আক্তার</t>
+          <t>ছেতরা বেগম</t>
         </is>
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৯১</t>
+          <t>৩১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H301" s="5" t="inlineStr">
         <is>
-          <t>ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৫, ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>১০২৪</t>
+          <t>০৬৮৩</t>
         </is>
       </c>
       <c r="B302" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মনোয়ার হোসেন তারেক</t>
+          <t>মোহাম্মদ আবদুর উদ্দীন</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৬৫৫</t>
+          <t>১৫২৫৮৯০০০১৬৪</t>
         </is>
       </c>
       <c r="D302" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মালেক</t>
+          <t>নজরুল ইসলাম</t>
         </is>
       </c>
       <c r="E302" s="4" t="inlineStr">
         <is>
-          <t>ছেতরা বেগম</t>
+          <t>আয়েশা আক্তার</t>
         </is>
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
         <is>
-          <t>৩১/১২/১৯৯৯</t>
+          <t>২০/১০/১৯৯১</t>
         </is>
       </c>
       <c r="H302" s="5" t="inlineStr">
         <is>
-          <t>২৫, ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
         <is>
-          <t>০০৮৬</t>
+          <t>০০২০</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরু খাঁ</t>
+          <t>আবদুল জব্বার</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২২২</t>
+          <t>১৫২৫৮৯০১০০০৫৬</t>
         </is>
       </c>
       <c r="D303" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ খা</t>
+          <t>হাজী সোলাইমান</t>
         </is>
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>মালখা বেগম</t>
+          <t>ছামে মেরাজ খাতুন</t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
@@ -13168,7 +13172,7 @@
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৬/১৯৭০</t>
+          <t>২৫/০৩/১৯৭৭</t>
         </is>
       </c>
       <c r="H303" s="5" t="inlineStr">
@@ -13222,37 +13226,37 @@
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
         <is>
-          <t>০০৩৬</t>
+          <t>০০৮৫</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আজিজ</t>
+          <t>মোস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১০৯</t>
+          <t>১৫২৫৮৯০১০২২১</t>
         </is>
       </c>
       <c r="D305" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হালিম</t>
+          <t>সাচি মিয়া</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>গুলচার বেগম</t>
+          <t>আমেনা</t>
         </is>
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৮৩</t>
+          <t>১২/০৩/১৯৮২</t>
         </is>
       </c>
       <c r="H305" s="5" t="inlineStr">
@@ -13264,37 +13268,37 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>০০৮৫</t>
+          <t>০০৮৬</t>
         </is>
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফিজুর রহমান</t>
+          <t>মোহাম্মদ নুরু খাঁ</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২২১</t>
+          <t>১৫২৫৮৯০১০২২২</t>
         </is>
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>সাচি মিয়া</t>
+          <t>আবদুল মজিদ খা</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>আমেনা</t>
+          <t>মালখা বেগম</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৮২</t>
+          <t>১৩/০৬/১৯৭০</t>
         </is>
       </c>
       <c r="H306" s="5" t="inlineStr">
@@ -13306,27 +13310,27 @@
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>০০২০</t>
+          <t>০০৮৭</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জব্বার</t>
+          <t>খোকন হাওলাদার</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৫৬</t>
+          <t>১৫২৫৮৯০১০২২৩</t>
         </is>
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>হাজী সোলাইমান</t>
+          <t>ইদ্রিস হাওলাদার</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>ছামে মেরাজ খাতুন</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F307" s="3" t="inlineStr">
@@ -13336,7 +13340,7 @@
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৩/১৯৭৭</t>
+          <t>১২/০৬/১৯৮২</t>
         </is>
       </c>
       <c r="H307" s="5" t="inlineStr">
@@ -13348,37 +13352,37 @@
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>০০২১</t>
+          <t>০০৩৬</t>
         </is>
       </c>
       <c r="B308" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হাবিবুর রহমান রাসেল</t>
+          <t>আবদুল আজিজ</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৬৩</t>
+          <t>১৫২৫৮৯০১০১০৯</t>
         </is>
       </c>
       <c r="D308" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোসেন</t>
+          <t>আবদুল হালিম</t>
         </is>
       </c>
       <c r="E308" s="4" t="inlineStr">
         <is>
-          <t>জেসমিন আকতার</t>
+          <t>গুলচার বেগম</t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৮৬</t>
+          <t>১২/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="H308" s="5" t="inlineStr">
@@ -13432,37 +13436,37 @@
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>০০৮৭</t>
+          <t>০০২১</t>
         </is>
       </c>
       <c r="B310" s="4" t="inlineStr">
         <is>
-          <t>খোকন হাওলাদার</t>
+          <t>মোঃ হাবিবুর রহমান রাসেল</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২২৩</t>
+          <t>১৫২৫৮৯০১০০০৬৩</t>
         </is>
       </c>
       <c r="D310" s="4" t="inlineStr">
         <is>
-          <t>ইদ্রিস হাওলাদার</t>
+          <t>মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E310" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>জেসমিন আকতার</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>১২/০৬/১৯৮২</t>
+          <t>০১/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H310" s="5" t="inlineStr">
@@ -18423,7 +18427,7 @@
       </c>
       <c r="H428" s="5" t="inlineStr">
         <is>
-          <t>৪০৩ নং, সুখছড়ি, জোহরা বাপের বাড়ি,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪০৩ নং, সুখছড়ি, জোহরা বাপের বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -20439,7 +20443,7 @@
       </c>
       <c r="H476" s="5" t="inlineStr">
         <is>
-          <t>নেওয়াজ পন্ডিত বাড়ী, সুখছড়ী,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>নেওয়াজ পন্ডিত বাড়ী, সুখছড়ী, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -25570,27 +25574,27 @@
     <row r="599">
       <c r="A599" s="3" t="inlineStr">
         <is>
-          <t>০৯৪৩</t>
+          <t>০৯৫৭</t>
         </is>
       </c>
       <c r="B599" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আরিফুল ইসলাম</t>
+          <t>সেফায়েত হোসেন</t>
         </is>
       </c>
       <c r="C599" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৫৩৯</t>
+          <t>১৫২৫৮৯০০০৫৫২</t>
         </is>
       </c>
       <c r="D599" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আলী</t>
+          <t>আবুল কাসেম</t>
         </is>
       </c>
       <c r="E599" s="4" t="inlineStr">
         <is>
-          <t>কুব্বান বেগম</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F599" s="3" t="inlineStr">
@@ -25600,96 +25604,96 @@
       </c>
       <c r="G599" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০০</t>
+          <t>০৫/০৬/১৯৯৯</t>
         </is>
       </c>
       <c r="H599" s="5" t="inlineStr">
         <is>
-          <t>-০, পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="3" t="inlineStr">
         <is>
-          <t>০৯৫৮</t>
+          <t>০৯৪৩</t>
         </is>
       </c>
       <c r="B600" s="4" t="inlineStr">
         <is>
-          <t>আরিফুল ইসলাম</t>
+          <t>মুহাম্মদ আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C600" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৫৫৩</t>
+          <t>১৫২৫৮৯০০০৫৩৯</t>
         </is>
       </c>
       <c r="D600" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলম</t>
+          <t>মুহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E600" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>কুব্বান বেগম</t>
         </is>
       </c>
       <c r="F600" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G600" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৯৯</t>
+          <t>০১/০১/২০০০</t>
         </is>
       </c>
       <c r="H600" s="5" t="inlineStr">
         <is>
-          <t>পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>-০, পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3" t="inlineStr">
         <is>
-          <t>০৯৫৭</t>
+          <t>০৯৫৮</t>
         </is>
       </c>
       <c r="B601" s="4" t="inlineStr">
         <is>
-          <t>সেফায়েত হোসেন</t>
+          <t>আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C601" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৫৫২</t>
+          <t>১৫২৫৮৯০০০৫৫৩</t>
         </is>
       </c>
       <c r="D601" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাসেম</t>
+          <t>আব্দুল আলম</t>
         </is>
       </c>
       <c r="E601" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৯৯</t>
+          <t>১২/০২/১৯৯৯</t>
         </is>
       </c>
       <c r="H601" s="5" t="inlineStr">
         <is>
-          <t>পূর্ব হাজারী পাড়া,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -37647,11 +37651,7 @@
           <t>জান্নাতুল ফেরদৌস</t>
         </is>
       </c>
-      <c r="F886" s="3" t="inlineStr">
-        <is>
-          <t>জন্ম তারিখ:১২/০৮/১৯৭৫</t>
-        </is>
-      </c>
+      <c r="F886" s="3" t="inlineStr"/>
       <c r="G886" s="3" t="inlineStr">
         <is>
           <t>১২/০৮/১৯৭৫</t>
@@ -39885,7 +39885,7 @@
       </c>
       <c r="H939" s="5" t="inlineStr">
         <is>
-          <t>সিকান্দার মুস্তার বাড়ি, সুখছড়ি,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>সিকান্দার মুস্তার বাড়ি, সুখছড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -40347,7 +40347,7 @@
       </c>
       <c r="H950" s="5" t="inlineStr">
         <is>
-          <t>৩০১, সুখছড়ি চরপাড়া, পশ্চিম হাজারবিঘা,, আমিরাবাদ, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩০১, সুখছড়ি চরপাড়া, পশ্চিম হাজারবিঘা, আমিরাবাদ, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -45839,7 +45839,7 @@
       </c>
       <c r="F1081" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০৮/০২/২০০৬</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1081" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/AMIRABAD/152589/152589_com_1373_male_without_photo_78_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152589/152589_com_1373_male_without_photo_78_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45.5" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="44.5" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>৬৫৭, আলীর বাপের বাড়ী, পূর্ব হাজারবিঘা, হাজারবিঘা, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৫৭, আলীর বাপের বাড়ী, পূর্ব হাজারবিঘা,, হাজারবিঘা, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
-          <t>০১৭০, কমলার বাপের বাড়ি, সুখছড়ী, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>০১৭০, কমলার বাপের বাড়ি, সুখছড়ী,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -9345,14 +9345,10 @@
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G212" s="3" t="inlineStr">
-        <is>
-          <t>১৮/১০/১৯৫৪</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:১৮/১০/১৯৫৪</t>
+        </is>
+      </c>
+      <c r="G212" s="3" t="inlineStr"/>
       <c r="H212" s="5" t="inlineStr">
         <is>
           <t>খলিফার বাড়ি, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
@@ -9992,22 +9988,22 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>০৬৯২</t>
+          <t>১০১৮</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আব্দুল হামান</t>
+          <t>শাহা আলম</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৮৪</t>
+          <t>১৫২৫৮৯০০০৬৪৮</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>জাকের আহমেদ</t>
+          <t>মৃত জাগির মিয়া</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
@@ -10017,39 +10013,39 @@
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G228" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯০</t>
+          <t>১২/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="H228" s="5" t="inlineStr">
         <is>
-          <t>গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৪৬, গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>১০১৮</t>
+          <t>০৬৯২</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>শাহা আলম</t>
+          <t>মোঃ আব্দুল হামান</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৬৪৮</t>
+          <t>১৫২৫৮৯০০০১৮৪</t>
         </is>
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>মৃত জাগির মিয়া</t>
+          <t>জাকের আহমেদ</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
@@ -10059,54 +10055,54 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G229" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৮৩</t>
+          <t>০১/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H229" s="5" t="inlineStr">
         <is>
-          <t>৪৪৬, গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গাজী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>০৪০৮</t>
+          <t>০৪৩৪</t>
         </is>
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক</t>
+          <t>নাজিম উদ্দীন</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪৭৫</t>
+          <t>১৫২৫৮৯০১৩৫১৭</t>
         </is>
       </c>
       <c r="D230" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>আবদুল আলিম</t>
         </is>
       </c>
       <c r="E230" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G230" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/১৯৮৭</t>
+          <t>১০/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H230" s="5" t="inlineStr">
@@ -10118,37 +10114,37 @@
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>০৪৩৩</t>
+          <t>০৪৩৬</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জালাল উদ্দীন</t>
+          <t>মোহাম্মদ সুমন</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৫১৬</t>
+          <t>১৫২৫৮৯০১৩৫২০</t>
         </is>
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>ঠান্ডা মিয়া</t>
+          <t>মোহাম্মদ মুহা</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>জান্নাত আরা বেগম</t>
         </is>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G231" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৫৭</t>
+          <t>০৫/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="H231" s="5" t="inlineStr">
@@ -10160,27 +10156,27 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>০৪৩৪</t>
+          <t>১২৮১</t>
         </is>
       </c>
       <c r="B232" s="4" t="inlineStr">
         <is>
-          <t>নাজিম উদ্দীন</t>
+          <t>মোহাম্মদ ইমরান গাজী ইমন</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৫১৭</t>
+          <t>১৫২৫৮৯০৭১১১৫৬</t>
         </is>
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আলিম</t>
+          <t>মোহাম্মদ ইউছুপ</t>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>তাহলিমা আকতার</t>
         </is>
       </c>
       <c r="F232" s="3" t="inlineStr">
@@ -10190,49 +10186,49 @@
       </c>
       <c r="G232" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৭</t>
+          <t>০৮/১২/২০০১</t>
         </is>
       </c>
       <c r="H232" s="5" t="inlineStr">
         <is>
-          <t>গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৪০, গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>০৪৩৬</t>
+          <t>০৪০৮</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সুমন</t>
+          <t>মোহাম্মদ রফিক</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৫২০</t>
+          <t>১৫২৫৮৯০১৩৪৭৫</t>
         </is>
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুহা</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>জান্নাত আরা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F233" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G233" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৫</t>
+          <t>০২/০৮/১৯৮৭</t>
         </is>
       </c>
       <c r="H233" s="5" t="inlineStr">
@@ -10244,37 +10240,37 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>০৩৩৯</t>
+          <t>০৩৫৫</t>
         </is>
       </c>
       <c r="B234" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হারুন</t>
+          <t>মুজিবুর রহমান</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৩০১</t>
+          <t>১৫২৫৮৯০১৩৩৪৭</t>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>মদন আলী</t>
+          <t>আব্দুর হুসাইন</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>খদিজা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t>০২/০৭/১৯৭১</t>
+          <t>০১/০১/১৯৭৩</t>
         </is>
       </c>
       <c r="H234" s="5" t="inlineStr">
@@ -10286,27 +10282,27 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৫</t>
+          <t>০৩৪২</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>মুজিবুর রহমান</t>
+          <t>মোহাম্মদ ইলিয়াছ</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩৪৭</t>
+          <t>১৫২৫৮৯০১৩৩১৫</t>
         </is>
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>আব্দুর হুসাইন</t>
+          <t>আকাম উদ্দীন</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F235" s="3" t="inlineStr">
@@ -10316,7 +10312,7 @@
       </c>
       <c r="G235" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৭৩</t>
+          <t>০২/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="H235" s="5" t="inlineStr">
@@ -10328,79 +10324,79 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>১২৮১</t>
+          <t>০৩৪৫</t>
         </is>
       </c>
       <c r="B236" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইমরান গাজী ইমন</t>
+          <t>মোহাম্মদ ইউচ্ছুপ</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০৭১১১৫৬</t>
+          <t>১৫২৫৮৯০১৩৩১৮</t>
         </is>
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউছুপ</t>
+          <t>আকাম উদ্দীন</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>তাহলিমা আকতার</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F236" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G236" s="3" t="inlineStr">
         <is>
-          <t>০৮/১২/২০০১</t>
+          <t>০২/০৪/১৯৭১</t>
         </is>
       </c>
       <c r="H236" s="5" t="inlineStr">
         <is>
-          <t>৪৪০, গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গাজী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>০৩৪২</t>
+          <t>০৩৩৯</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইলিয়াছ</t>
+          <t>মোহাম্মদ হারুন</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩১৫</t>
+          <t>১৫২৫৮৯০১০১৩০১</t>
         </is>
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>আকাম উদ্দীন</t>
+          <t>মদন আলী</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>খদিজা বেগম</t>
         </is>
       </c>
       <c r="F237" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G237" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৮৩</t>
+          <t>০২/০৭/১৯৭১</t>
         </is>
       </c>
       <c r="H237" s="5" t="inlineStr">
@@ -10412,17 +10408,17 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>০৩৪৫</t>
+          <t>০৩৪৩</t>
         </is>
       </c>
       <c r="B238" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউচ্ছুপ</t>
+          <t>মোহাম্মদ ইব্রাহিম খলিল</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩১৮</t>
+          <t>১৫২৫৮৯০১৩৩১৬</t>
         </is>
       </c>
       <c r="D238" s="4" t="inlineStr">
@@ -10442,7 +10438,7 @@
       </c>
       <c r="G238" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৭১</t>
+          <t>০৩/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="H238" s="5" t="inlineStr">
@@ -10454,27 +10450,27 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>০৩৪৩</t>
+          <t>০৪৩৩</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহিম খলিল</t>
+          <t>মোহাম্মদ জালাল উদ্দীন</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩১৬</t>
+          <t>১৫২৫৮৯০১৩৫১৬</t>
         </is>
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>আকাম উদ্দীন</t>
+          <t>ঠান্ডা মিয়া</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F239" s="3" t="inlineStr">
@@ -10484,7 +10480,7 @@
       </c>
       <c r="G239" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/১৯৮৩</t>
+          <t>১০/০২/১৯৫৭</t>
         </is>
       </c>
       <c r="H239" s="5" t="inlineStr">
@@ -10580,17 +10576,17 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>০০৯২</t>
+          <t>০০৯৫</t>
         </is>
       </c>
       <c r="B242" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সামাঙ্গল আলম</t>
+          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০৩০৯</t>
+          <t>১৫২৫৮৯০১০৩১৪</t>
         </is>
       </c>
       <c r="D242" s="4" t="inlineStr">
@@ -10610,7 +10606,7 @@
       </c>
       <c r="G242" s="3" t="inlineStr">
         <is>
-          <t>০১/০৪/১৯৭২</t>
+          <t>০৩/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H242" s="5" t="inlineStr">
@@ -10622,17 +10618,17 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>০০৯৫</t>
+          <t>০০৯২</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
+          <t>মোহাম্মদ সামাঙ্গল আলম</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০৩১৪</t>
+          <t>১৫২৫৮৯০১০৩০৯</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
@@ -10652,7 +10648,7 @@
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/১৯৮৫</t>
+          <t>০১/০৪/১৯৭২</t>
         </is>
       </c>
       <c r="H243" s="5" t="inlineStr">
@@ -10916,69 +10912,69 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>১০৭৪</t>
+          <t>১২৫৮</t>
         </is>
       </c>
       <c r="B250" s="4" t="inlineStr">
         <is>
-          <t>সালাহ উদ্দীন</t>
+          <t>জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৭৯১৭</t>
+          <t>১৫২৫৮৯০০০৮৪২</t>
         </is>
       </c>
       <c r="D250" s="4" t="inlineStr">
         <is>
-          <t>মুত আব্দুল মজিদ</t>
+          <t>জেয়াবুল হক</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
         <is>
-          <t>মুত রাবেয়া বেগম</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F250" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G250" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৮/১৯৬৭</t>
+          <t>১২/০১/১৯৭৯</t>
         </is>
       </c>
       <c r="H250" s="5" t="inlineStr">
         <is>
-          <t>০০৪২, গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৭৫, গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৫</t>
+          <t>০৭১৬</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>ইয়াছিন আরফাত</t>
+          <t>মুহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৯৪</t>
+          <t>১৫২৫৮৯০০০১৯৫</t>
         </is>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>আব্দুল বশর</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>বেগম জাহান</t>
         </is>
       </c>
       <c r="F251" s="3" t="inlineStr">
@@ -10988,7 +10984,7 @@
       </c>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>৩১/০৫/১৯৯৩</t>
+          <t>২০/০৭/১৯৯২</t>
         </is>
       </c>
       <c r="H251" s="5" t="inlineStr">
@@ -11000,69 +10996,69 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>১২৫৮</t>
+          <t>০৮৭৭</t>
         </is>
       </c>
       <c r="B252" s="4" t="inlineStr">
         <is>
-          <t>জাহাঙ্গীর আলম</t>
+          <t>মোঃ আরমান</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৮৪২</t>
+          <t>১৫২৫৮৯০০০৪১১</t>
         </is>
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>জেয়াবুল হক</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>বেগম জাহান</t>
         </is>
       </c>
       <c r="F252" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G252" s="3" t="inlineStr">
         <is>
-          <t>১২/০১/১৯৭৯</t>
+          <t>১০/০৮/১৯৯৬</t>
         </is>
       </c>
       <c r="H252" s="5" t="inlineStr">
         <is>
-          <t>৭৭৫, গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>০৭১৬</t>
+          <t>০৭৩৫</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হানিফ</t>
+          <t>ইয়াছিন আরফাত</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৯৫</t>
+          <t>১৫২৫৮৯০০০১৯৪</t>
         </is>
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল বশর</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>বেগম জাহান</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="F253" s="3" t="inlineStr">
@@ -11072,7 +11068,7 @@
       </c>
       <c r="G253" s="3" t="inlineStr">
         <is>
-          <t>২০/০৭/১৯৯২</t>
+          <t>৩১/০৫/১৯৯৩</t>
         </is>
       </c>
       <c r="H253" s="5" t="inlineStr">
@@ -11084,84 +11080,84 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৭</t>
+          <t>০০২৮</t>
         </is>
       </c>
       <c r="B254" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আরমান</t>
+          <t>মনির আহমদ</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৪১১</t>
+          <t>১৫২৫৮৯০১০০০৮১</t>
         </is>
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>আবদুস সাত্তার</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>বেগম জাহান</t>
+          <t>কুলছুমা খাতুন</t>
         </is>
       </c>
       <c r="F254" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G254" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৯৬</t>
+          <t>১২/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H254" s="5" t="inlineStr">
         <is>
-          <t>গোলাম আলী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>১১৭৫</t>
+          <t>০০৩০</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নোমান</t>
+          <t>ফোরক আহমদ</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০৭০৯৪৭</t>
+          <t>১৫২৫৮৯০১০০০৯৭</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শফি</t>
+          <t>ফজল কবির</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>জাহেদা বেগম</t>
+          <t>গুলজার বেগম</t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/২০০২</t>
+          <t>১৭/০৮/১৯৪৯</t>
         </is>
       </c>
       <c r="H255" s="5" t="inlineStr">
         <is>
-          <t>৭৪, গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -11210,42 +11206,42 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>০০৩০</t>
+          <t>১১৭৫</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>ফোরক আহমদ</t>
+          <t>মোঃ নোমান</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৯৭</t>
+          <t>১৫২৫৮৯০৭০৯৪৭</t>
         </is>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>ফজল কবির</t>
+          <t>মোঃ শফি</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>গুলজার বেগম</t>
+          <t>জাহেদা বেগম</t>
         </is>
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৪৯</t>
+          <t>১০/০১/২০০২</t>
         </is>
       </c>
       <c r="H257" s="5" t="inlineStr">
         <is>
-          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৪, গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -11294,37 +11290,37 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>০০২৮</t>
+          <t>০০৩৮</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমদ</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৮১</t>
+          <t>১৫২৫৮৯০১০১১৬</t>
         </is>
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সাত্তার</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>কুলছুমা খাতুন</t>
+          <t>রাবেয়া খাতুন</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>১২/০৮/১৯৬৭</t>
+          <t>১৬/১০/১৯৫৫</t>
         </is>
       </c>
       <c r="H259" s="5" t="inlineStr">
@@ -11378,37 +11374,37 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>০০৩৯</t>
+          <t>০০৪১</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবু ছিদিক</t>
+          <t>দুসন্তর বড়ুয়া</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১১৭</t>
+          <t>১৫২৫৮৯০১০১২১</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>বিরাজ চন্দ্র বড়ুয়া</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খাতুন</t>
+          <t>নয়ন বড়ুয়া</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G261" s="3" t="inlineStr">
         <is>
-          <t>০২/০২/১৯৭০</t>
+          <t>১৮/০১/১৯৮৭</t>
         </is>
       </c>
       <c r="H261" s="5" t="inlineStr">
@@ -11420,27 +11416,27 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>০০৮০</t>
+          <t>০০৭০</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলমগীর</t>
+          <t>মনু মিয়া</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০৯</t>
+          <t>১৫২৫৮৯০১০১৯২</t>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F262" s="3" t="inlineStr">
@@ -11450,7 +11446,7 @@
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৬/১৯৮৮</t>
+          <t>০১/০৪/১৯৮২</t>
         </is>
       </c>
       <c r="H262" s="5" t="inlineStr">
@@ -11462,37 +11458,37 @@
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>০০৭৯</t>
+          <t>০০৭১</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
+          <t>খাইর আহমেদ</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০৮</t>
+          <t>১৫২৫৮৯০১০১৯৩</t>
         </is>
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>ফজলুল কবির</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>গোলজার বেগম</t>
         </is>
       </c>
       <c r="F263" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G263" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৮৩</t>
+          <t>০৮/০৬/১৯৬৪</t>
         </is>
       </c>
       <c r="H263" s="5" t="inlineStr">
@@ -11504,37 +11500,37 @@
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>০০৭৮</t>
+          <t>০০৭২</t>
         </is>
       </c>
       <c r="B264" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ শামসুল আলম</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০৫</t>
+          <t>১৫২৫৮৯০১০১৯৫</t>
         </is>
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t>এম এজাহার মিয়া</t>
+          <t>আবদুস সান্তার</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>কুলছুমা খাতুন</t>
         </is>
       </c>
       <c r="F264" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G264" s="3" t="inlineStr">
         <is>
-          <t>১১/০৬/১৯৫৭</t>
+          <t>২৯/০৭/১৯৫৭</t>
         </is>
       </c>
       <c r="H264" s="5" t="inlineStr">
@@ -11546,27 +11542,27 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>০০৭৬</t>
+          <t>০০৭৩</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরিফ উদ্দীন</t>
+          <t>আবদুর রহিম</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২০২</t>
+          <t>১৫২৫৮৯০১০১৯৬</t>
         </is>
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>আবদুল গফুর</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা আক্তার</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
@@ -11576,7 +11572,7 @@
       </c>
       <c r="G265" s="3" t="inlineStr">
         <is>
-          <t>০১/০৯/১৯৮৯</t>
+          <t>০২/১০/১৯৮৩</t>
         </is>
       </c>
       <c r="H265" s="5" t="inlineStr">
@@ -11588,37 +11584,37 @@
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>০০৫০</t>
+          <t>০০৭৪</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শফি</t>
+          <t>মোহাম্মদ ফারুক মিশ্রা</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৫৩</t>
+          <t>১৫২৫৮৯০১০১৯৮</t>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>আবদুল গফুর</t>
+          <t>রমিছ উদ্দীন</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মুনতোকা খাতুন</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৮/১৯৭৯</t>
+          <t>১২/০৪/১৯৭২</t>
         </is>
       </c>
       <c r="H266" s="5" t="inlineStr">
@@ -11630,37 +11626,37 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>০০৪৯</t>
+          <t>০০৭৫</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আক্তার হোছেন</t>
+          <t>মোহাম্মদ সিরাজুল হক</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৪৯</t>
+          <t>১৫২৫৮৯০১০১৯৯</t>
         </is>
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>আসমা খাতুন</t>
+          <t>মোনেনা খাতুন</t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G267" s="3" t="inlineStr">
         <is>
-          <t>৩০/১০/১৯৮৭</t>
+          <t>১৫/০৬/১৯৬৬</t>
         </is>
       </c>
       <c r="H267" s="5" t="inlineStr">
@@ -11672,17 +11668,17 @@
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>০০৪৬</t>
+          <t>০০৭৬</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ তারেক উদ্দীন</t>
+          <t>মোহাম্মদ আরিফ উদ্দীন</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৩৭</t>
+          <t>১৫২৫৮৯০১০২০২</t>
         </is>
       </c>
       <c r="D268" s="4" t="inlineStr">
@@ -11697,12 +11693,12 @@
       </c>
       <c r="F268" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>০৯/০১/১৯৮৮</t>
+          <t>০১/০৯/১৯৮৯</t>
         </is>
       </c>
       <c r="H268" s="5" t="inlineStr">
@@ -11714,37 +11710,37 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>০০৭৫</t>
+          <t>০০৭৮</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সিরাজুল হক</t>
+          <t>মুহাম্মদ শামসুল আলম</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৯</t>
+          <t>১৫২৫৮৯০১০২০৫</t>
         </is>
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>আজিজুর রহমান</t>
+          <t>এম এজাহার মিয়া</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>মোনেনা খাতুন</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৬/১৯৬৬</t>
+          <t>১১/০৬/১৯৫৭</t>
         </is>
       </c>
       <c r="H269" s="5" t="inlineStr">
@@ -11756,27 +11752,27 @@
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>০০৭৪</t>
+          <t>০০৭৯</t>
         </is>
       </c>
       <c r="B270" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফারুক মিশ্রা</t>
+          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৮</t>
+          <t>১৫২৫৮৯০১০২০৮</t>
         </is>
       </c>
       <c r="D270" s="4" t="inlineStr">
         <is>
-          <t>রমিছ উদ্দীন</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
         <is>
-          <t>মুনতোকা খাতুন</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F270" s="3" t="inlineStr">
@@ -11786,7 +11782,7 @@
       </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t>১২/০৪/১৯৭২</t>
+          <t>০৭/০৯/১৯৮৩</t>
         </is>
       </c>
       <c r="H270" s="5" t="inlineStr">
@@ -11798,37 +11794,37 @@
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>০০৪৩</t>
+          <t>০০৩৯</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আনোয়ার হোসাইন</t>
+          <t>মোহাম্মদ আবু ছিদিক</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৩০</t>
+          <t>১৫২৫৮৯০১০১১৭</t>
         </is>
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>রাবেয়া খাতুন</t>
         </is>
       </c>
       <c r="F271" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৭৫</t>
+          <t>০২/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H271" s="5" t="inlineStr">
@@ -11840,37 +11836,37 @@
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>০০৮২</t>
+          <t>০০৮১</t>
         </is>
       </c>
       <c r="B272" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সোলাইমান</t>
+          <t>ছাবের আহমেদ</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২১৩</t>
+          <t>১৫২৫৮৯০১০২১১</t>
         </is>
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>মোহাম্মদ ইসমাইল</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
         <is>
-          <t>আছিয়া বেগম</t>
+          <t>ওমদা খাতুন</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শিক্ষক</t>
         </is>
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৫/১৯৬৫</t>
+          <t>১৬/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H272" s="5" t="inlineStr">
@@ -11882,37 +11878,37 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>০০৪২</t>
+          <t>০০৫০</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আমিনুল হক</t>
+          <t>মোহাম্মদ শফি</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১২২</t>
+          <t>১৫২৫৮৯০১০১৫৩</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>আজিজুর রহমান</t>
+          <t>আবদুল গফুর</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>মোনেনা খাতুন</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F273" s="3" t="inlineStr">
         <is>
-          <t>দার্জ</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>২১/১২/১৯৭০</t>
+          <t>১৩/০৮/১৯৭৯</t>
         </is>
       </c>
       <c r="H273" s="5" t="inlineStr">
@@ -11924,37 +11920,37 @@
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>০০৭৩</t>
+          <t>০০৪৯</t>
         </is>
       </c>
       <c r="B274" s="4" t="inlineStr">
         <is>
-          <t>আবদুর রহিম</t>
+          <t>মোহাম্মদ আক্তার হোছেন</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৬</t>
+          <t>১৫২৫৮৯০১০১৪৯</t>
         </is>
       </c>
       <c r="D274" s="4" t="inlineStr">
         <is>
-          <t>আবদুল গফুর</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E274" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>আসমা খাতুন</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>০২/১০/১৯৮৩</t>
+          <t>৩০/১০/১৯৮৭</t>
         </is>
       </c>
       <c r="H274" s="5" t="inlineStr">
@@ -11966,37 +11962,37 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>০০৭২</t>
+          <t>০০৮০</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>মোহাম্মদ আলমগীর</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৫</t>
+          <t>১৫২৫৮৯০১০২০৯</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সান্তার</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>কুলছুমা খাতুন</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>২৯/০৭/১৯৫৭</t>
+          <t>৩০/০৬/১৯৮৮</t>
         </is>
       </c>
       <c r="H275" s="5" t="inlineStr">
@@ -12008,37 +12004,37 @@
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>০০৭১</t>
+          <t>০০৪৬</t>
         </is>
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>খাইর আহমেদ</t>
+          <t>মোহাম্মদ তারেক উদ্দীন</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯৩</t>
+          <t>১৫২৫৮৯০১০১৩৭</t>
         </is>
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>ফজলুল কবির</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
         <is>
-          <t>গোলজার বেগম</t>
+          <t>তাহেরা আক্তার</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৬৪</t>
+          <t>০৯/০১/১৯৮৮</t>
         </is>
       </c>
       <c r="H276" s="5" t="inlineStr">
@@ -12050,37 +12046,37 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>০০৭০</t>
+          <t>০০৮৮</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>মনু মিয়া</t>
+          <t>মোহাম্মদ হেলাল</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১৯২</t>
+          <t>১৫২৫৮৯০১০২৩৫</t>
         </is>
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মোহাম্মদ আবুল বশর</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>বেগম জাহন</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>০১/০৪/১৯৮২</t>
+          <t>০১/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H277" s="5" t="inlineStr">
@@ -12092,27 +12088,27 @@
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>০০৮৮</t>
+          <t>০০৪৩</t>
         </is>
       </c>
       <c r="B278" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হেলাল</t>
+          <t>মোহাম্মদ আনোয়ার হোসাইন</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২৩৫</t>
+          <t>১৫২৫৮৯০১০১৩০</t>
         </is>
       </c>
       <c r="D278" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল বশর</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E278" s="4" t="inlineStr">
         <is>
-          <t>বেগম জাহন</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F278" s="3" t="inlineStr">
@@ -12122,7 +12118,7 @@
       </c>
       <c r="G278" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯০</t>
+          <t>০৫/০১/১৯৭৫</t>
         </is>
       </c>
       <c r="H278" s="5" t="inlineStr">
@@ -12176,27 +12172,27 @@
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>০০৪১</t>
+          <t>০০৮২</t>
         </is>
       </c>
       <c r="B280" s="4" t="inlineStr">
         <is>
-          <t>দুসন্তর বড়ুয়া</t>
+          <t>মোহাম্মদ সোলাইমান</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১২১</t>
+          <t>১৫২৫৮৯০১০২১৩</t>
         </is>
       </c>
       <c r="D280" s="4" t="inlineStr">
         <is>
-          <t>বিরাজ চন্দ্র বড়ুয়া</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E280" s="4" t="inlineStr">
         <is>
-          <t>নয়ন বড়ুয়া</t>
+          <t>আছিয়া বেগম</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
@@ -12206,7 +12202,7 @@
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>১৮/০১/১৯৮৭</t>
+          <t>০৬/০৫/১৯৬৫</t>
         </is>
       </c>
       <c r="H280" s="5" t="inlineStr">
@@ -12218,37 +12214,37 @@
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>০০৩৮</t>
+          <t>০০৪২</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>মোঃ আমিনুল হক</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১১৬</t>
+          <t>১৫২৫৮৯০১০১২২</t>
         </is>
       </c>
       <c r="D281" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খাতুন</t>
+          <t>মোনেনা খাতুন</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>দার্জ</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
-          <t>১৬/১০/১৯৫৫</t>
+          <t>২১/১২/১৯৭০</t>
         </is>
       </c>
       <c r="H281" s="5" t="inlineStr">
@@ -12260,42 +12256,42 @@
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>০০৮১</t>
+          <t>১০৭৪</t>
         </is>
       </c>
       <c r="B282" s="4" t="inlineStr">
         <is>
-          <t>ছাবের আহমেদ</t>
+          <t>সালাহ উদ্দীন</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২১১</t>
+          <t>১৫২৫৮৯০০০৭৯১৭</t>
         </is>
       </c>
       <c r="D282" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইসমাইল</t>
+          <t>মুত আব্দুল মজিদ</t>
         </is>
       </c>
       <c r="E282" s="4" t="inlineStr">
         <is>
-          <t>ওমদা খাতুন</t>
+          <t>মুত রাবেয়া বেগম</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>শিক্ষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>১৬/০২/১৯৭০</t>
+          <t>০৩/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H282" s="5" t="inlineStr">
         <is>
-          <t>গোলাম আলী পাড়া, সুখছড়ী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>০০৪২, গোলাম আলী পাড়া,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -12722,27 +12718,27 @@
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৮</t>
+          <t>০৪০৪</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন খলিফা</t>
+          <t>আহমেদ হোসেন</t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৩৭৪</t>
+          <t>১৫২৫৮৯০১৩৪৭০</t>
         </is>
       </c>
       <c r="D293" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>আব্দুর রশিদ</t>
         </is>
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>বিবি শোনা</t>
+          <t>মায়মুনা বেগম</t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
@@ -12752,7 +12748,7 @@
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/১৯৭৭</t>
+          <t>০২/০৫/১৯৫৭</t>
         </is>
       </c>
       <c r="H293" s="5" t="inlineStr">
@@ -12764,27 +12760,27 @@
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>০৩৮১</t>
+          <t>০৩৬৮</t>
         </is>
       </c>
       <c r="B294" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোসেন</t>
+          <t>নুরুল আমিন খলিফা</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪০৩</t>
+          <t>১৫২৫৮৯০১৩৩৭৪</t>
         </is>
       </c>
       <c r="D294" s="4" t="inlineStr">
         <is>
-          <t>নজু মিশ্রা</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="E294" s="4" t="inlineStr">
         <is>
-          <t>আফিয়া খাতুন</t>
+          <t>বিবি শোনা</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
@@ -12794,7 +12790,7 @@
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t>০২/০৭/১৯৫২</t>
+          <t>০২/০৮/১৯৭৭</t>
         </is>
       </c>
       <c r="H294" s="5" t="inlineStr">
@@ -12806,27 +12802,27 @@
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>০৩৮০</t>
+          <t>০৩৮১</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ দেলোয়ার হোসাইন</t>
+          <t>মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪০২</t>
+          <t>১৫২৫৮৯০১৩৪০৩</t>
         </is>
       </c>
       <c r="D295" s="4" t="inlineStr">
         <is>
-          <t>নজু মিয়া</t>
+          <t>নজু মিশ্রা</t>
         </is>
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>আফিয়া বেগম</t>
+          <t>আফিয়া খাতুন</t>
         </is>
       </c>
       <c r="F295" s="3" t="inlineStr">
@@ -12836,7 +12832,7 @@
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৮২</t>
+          <t>০২/০৭/১৯৫২</t>
         </is>
       </c>
       <c r="H295" s="5" t="inlineStr">
@@ -12848,27 +12844,27 @@
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>০৪০৪</t>
+          <t>০৩৮০</t>
         </is>
       </c>
       <c r="B296" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোসেন</t>
+          <t>মোহাম্মদ দেলোয়ার হোসাইন</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১৩৪৭০</t>
+          <t>১৫২৫৮৯০১৩৪০২</t>
         </is>
       </c>
       <c r="D296" s="4" t="inlineStr">
         <is>
-          <t>আব্দুর রশিদ</t>
+          <t>নজু মিয়া</t>
         </is>
       </c>
       <c r="E296" s="4" t="inlineStr">
         <is>
-          <t>মায়মুনা বেগম</t>
+          <t>আফিয়া বেগম</t>
         </is>
       </c>
       <c r="F296" s="3" t="inlineStr">
@@ -12878,7 +12874,7 @@
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t>০২/০৫/১৯৫৭</t>
+          <t>১০/০৭/১৯৮২</t>
         </is>
       </c>
       <c r="H296" s="5" t="inlineStr">
@@ -13058,111 +13054,111 @@
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
         <is>
-          <t>১০২৪</t>
+          <t>০৬৮৩</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মনোয়ার হোসেন তারেক</t>
+          <t>মোহাম্মদ আবদুর উদ্দীন</t>
         </is>
       </c>
       <c r="C301" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৬৫৫</t>
+          <t>১৫২৫৮৯০০০১৬৪</t>
         </is>
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মালেক</t>
+          <t>নজরুল ইসলাম</t>
         </is>
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>ছেতরা বেগম</t>
+          <t>আয়েশা আক্তার</t>
         </is>
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
         <is>
-          <t>৩১/১২/১৯৯৯</t>
+          <t>২০/১০/১৯৯১</t>
         </is>
       </c>
       <c r="H301" s="5" t="inlineStr">
         <is>
-          <t>২৫, ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>০৬৮৩</t>
+          <t>১০২৪</t>
         </is>
       </c>
       <c r="B302" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুর উদ্দীন</t>
+          <t>মোঃ মনোয়ার হোসেন তারেক</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০১৬৪</t>
+          <t>১৫২৫৮৯০০০৬৫৫</t>
         </is>
       </c>
       <c r="D302" s="4" t="inlineStr">
         <is>
-          <t>নজরুল ইসলাম</t>
+          <t>আবদুল মালেক</t>
         </is>
       </c>
       <c r="E302" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা আক্তার</t>
+          <t>ছেতরা বেগম</t>
         </is>
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৯১</t>
+          <t>৩১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H302" s="5" t="inlineStr">
         <is>
-          <t>ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৫, ছাদর বর বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
         <is>
-          <t>০০২০</t>
+          <t>০০৮৬</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জব্বার</t>
+          <t>মোহাম্মদ নুরু খাঁ</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৫৬</t>
+          <t>১৫২৫৮৯০১০২২২</t>
         </is>
       </c>
       <c r="D303" s="4" t="inlineStr">
         <is>
-          <t>হাজী সোলাইমান</t>
+          <t>আবদুল মজিদ খা</t>
         </is>
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>ছামে মেরাজ খাতুন</t>
+          <t>মালখা বেগম</t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
@@ -13172,7 +13168,7 @@
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৩/১৯৭৭</t>
+          <t>১৩/০৬/১৯৭০</t>
         </is>
       </c>
       <c r="H303" s="5" t="inlineStr">
@@ -13226,37 +13222,37 @@
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
         <is>
-          <t>০০৮৫</t>
+          <t>০০৩৬</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফিজুর রহমান</t>
+          <t>আবদুল আজিজ</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২২১</t>
+          <t>১৫২৫৮৯০১০১০৯</t>
         </is>
       </c>
       <c r="D305" s="4" t="inlineStr">
         <is>
-          <t>সাচি মিয়া</t>
+          <t>আবদুল হালিম</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>আমেনা</t>
+          <t>গুলচার বেগম</t>
         </is>
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৮২</t>
+          <t>১২/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="H305" s="5" t="inlineStr">
@@ -13268,37 +13264,37 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>০০৮৬</t>
+          <t>০০৮৫</t>
         </is>
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরু খাঁ</t>
+          <t>মোস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২২২</t>
+          <t>১৫২৫৮৯০১০২২১</t>
         </is>
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ খা</t>
+          <t>সাচি মিয়া</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>মালখা বেগম</t>
+          <t>আমেনা</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৬/১৯৭০</t>
+          <t>১২/০৩/১৯৮২</t>
         </is>
       </c>
       <c r="H306" s="5" t="inlineStr">
@@ -13310,27 +13306,27 @@
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>০০৮৭</t>
+          <t>০০২০</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>খোকন হাওলাদার</t>
+          <t>আবদুল জব্বার</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০২২৩</t>
+          <t>১৫২৫৮৯০১০০০৫৬</t>
         </is>
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>ইদ্রিস হাওলাদার</t>
+          <t>হাজী সোলাইমান</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>ছামে মেরাজ খাতুন</t>
         </is>
       </c>
       <c r="F307" s="3" t="inlineStr">
@@ -13340,7 +13336,7 @@
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>১২/০৬/১৯৮২</t>
+          <t>২৫/০৩/১৯৭৭</t>
         </is>
       </c>
       <c r="H307" s="5" t="inlineStr">
@@ -13352,37 +13348,37 @@
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>০০৩৬</t>
+          <t>০০২১</t>
         </is>
       </c>
       <c r="B308" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আজিজ</t>
+          <t>মোঃ হাবিবুর রহমান রাসেল</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০১০৯</t>
+          <t>১৫২৫৮৯০১০০০৬৩</t>
         </is>
       </c>
       <c r="D308" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হালিম</t>
+          <t>মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E308" s="4" t="inlineStr">
         <is>
-          <t>গুলচার বেগম</t>
+          <t>জেসমিন আকতার</t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৮৩</t>
+          <t>০১/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H308" s="5" t="inlineStr">
@@ -13436,37 +13432,37 @@
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>০০২১</t>
+          <t>০০৮৭</t>
         </is>
       </c>
       <c r="B310" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হাবিবুর রহমান রাসেল</t>
+          <t>খোকন হাওলাদার</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০১০০০৬৩</t>
+          <t>১৫২৫৮৯০১০২২৩</t>
         </is>
       </c>
       <c r="D310" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোসেন</t>
+          <t>ইদ্রিস হাওলাদার</t>
         </is>
       </c>
       <c r="E310" s="4" t="inlineStr">
         <is>
-          <t>জেসমিন আকতার</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৮৬</t>
+          <t>১২/০৬/১৯৮২</t>
         </is>
       </c>
       <c r="H310" s="5" t="inlineStr">
@@ -18427,7 +18423,7 @@
       </c>
       <c r="H428" s="5" t="inlineStr">
         <is>
-          <t>৪০৩ নং, সুখছড়ি, জোহরা বাপের বাড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪০৩ নং, সুখছড়ি, জোহরা বাপের বাড়ি,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -20443,7 +20439,7 @@
       </c>
       <c r="H476" s="5" t="inlineStr">
         <is>
-          <t>নেওয়াজ পন্ডিত বাড়ী, সুখছড়ী, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>নেওয়াজ পন্ডিত বাড়ী, সুখছড়ী,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -25574,27 +25570,27 @@
     <row r="599">
       <c r="A599" s="3" t="inlineStr">
         <is>
-          <t>০৯৫৭</t>
+          <t>০৯৪৩</t>
         </is>
       </c>
       <c r="B599" s="4" t="inlineStr">
         <is>
-          <t>সেফায়েত হোসেন</t>
+          <t>মুহাম্মদ আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C599" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৫৫২</t>
+          <t>১৫২৫৮৯০০০৫৩৯</t>
         </is>
       </c>
       <c r="D599" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাসেম</t>
+          <t>মুহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E599" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>কুব্বান বেগম</t>
         </is>
       </c>
       <c r="F599" s="3" t="inlineStr">
@@ -25604,96 +25600,96 @@
       </c>
       <c r="G599" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৯৯</t>
+          <t>০১/০১/২০০০</t>
         </is>
       </c>
       <c r="H599" s="5" t="inlineStr">
         <is>
-          <t>পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>-০, পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="3" t="inlineStr">
         <is>
-          <t>০৯৪৩</t>
+          <t>০৯৫৮</t>
         </is>
       </c>
       <c r="B600" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আরিফুল ইসলাম</t>
+          <t>আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C600" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৫৩৯</t>
+          <t>১৫২৫৮৯০০০৫৫৩</t>
         </is>
       </c>
       <c r="D600" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আলী</t>
+          <t>আব্দুল আলম</t>
         </is>
       </c>
       <c r="E600" s="4" t="inlineStr">
         <is>
-          <t>কুব্বান বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F600" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G600" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০০</t>
+          <t>১২/০২/১৯৯৯</t>
         </is>
       </c>
       <c r="H600" s="5" t="inlineStr">
         <is>
-          <t>-০, পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3" t="inlineStr">
         <is>
-          <t>০৯৫৮</t>
+          <t>০৯৫৭</t>
         </is>
       </c>
       <c r="B601" s="4" t="inlineStr">
         <is>
-          <t>আরিফুল ইসলাম</t>
+          <t>সেফায়েত হোসেন</t>
         </is>
       </c>
       <c r="C601" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৮৯০০০৫৫৩</t>
+          <t>১৫২৫৮৯০০০৫৫২</t>
         </is>
       </c>
       <c r="D601" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলম</t>
+          <t>আবুল কাসেম</t>
         </is>
       </c>
       <c r="E601" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৯৯</t>
+          <t>০৫/০৬/১৯৯৯</t>
         </is>
       </c>
       <c r="H601" s="5" t="inlineStr">
         <is>
-          <t>পূর্ব হাজারী পাড়া, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>পূর্ব হাজারী পাড়া,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -37651,7 +37647,11 @@
           <t>জান্নাতুল ফেরদৌস</t>
         </is>
       </c>
-      <c r="F886" s="3" t="inlineStr"/>
+      <c r="F886" s="3" t="inlineStr">
+        <is>
+          <t>জন্ম তারিখ:১২/০৮/১৯৭৫</t>
+        </is>
+      </c>
       <c r="G886" s="3" t="inlineStr">
         <is>
           <t>১২/০৮/১৯৭৫</t>
@@ -39885,7 +39885,7 @@
       </c>
       <c r="H939" s="5" t="inlineStr">
         <is>
-          <t>সিকান্দার মুস্তার বাড়ি, সুখছড়ি, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>সিকান্দার মুস্তার বাড়ি, সুখছড়ি,, সুখছড়ি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -40347,7 +40347,7 @@
       </c>
       <c r="H950" s="5" t="inlineStr">
         <is>
-          <t>৩০১, সুখছড়ি চরপাড়া, পশ্চিম হাজারবিঘা, আমিরাবাদ, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩০১, সুখছড়ি চরপাড়া, পশ্চিম হাজারবিঘা,, আমিরাবাদ, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -45839,7 +45839,7 @@
       </c>
       <c r="F1081" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৮/০২/২০০৬</t>
         </is>
       </c>
       <c r="G1081" s="3" t="inlineStr">
